--- a/.venv/studycourse.xlsx
+++ b/.venv/studycourse.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,11 +356,16 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>test1</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -370,27 +375,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hop</t>
+          <t>test3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>hap</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/.venv/studycourse.xlsx
+++ b/.venv/studycourse.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,11 +356,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>test 1</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -371,28 +371,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test 2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>test 3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
